--- a/biology/Zoologie/Drepanosauridae/Drepanosauridae.xlsx
+++ b/biology/Zoologie/Drepanosauridae/Drepanosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Drepanosauridae (Drépanosauridés en français) sont une famille de reptiles étranges qui ont vécu pendant le Carnien et le Norien (Trias supérieur), entre 230 et 210 millions d'années. Ils appartiennent au clade des Drepanosauromorpha[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Drepanosauridae (Drépanosauridés en français) sont une famille de reptiles étranges qui ont vécu pendant le Carnien et le Norien (Trias supérieur), entre 230 et 210 millions d'années. Ils appartiennent au clade des Drepanosauromorpha.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces de drépanosauridés sont caractérisées par des membres de préhension spécialisés et étranges et souvent des queues préhensiles, des adaptations à une vie arboricole et/ou éventuellement à une vie aquatique. Des fossiles de drépanosauridés ont été trouvés en Arizona, au Nouveau-Mexique, au New Jersey, en Utah, en Angleterre et dans le nord de l'Italie.
 Les drépanosauridés sont remarquables par leurs crânes triangulaires distinctifs, qui ressemblent aux crânes des oiseaux. Certains drépanosauridés, comme Hypuronector, avaient des becs pointus, sans dents, ressemblant à des oiseaux. Cette similitude avec les oiseaux pourrait avoir conduit à la possible mauvaise attribution d'un crâne de drépanosauridés au « premier oiseau », Protoavis.
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Drepanosauridae tire son nom du genre homonyme Drepanosaurus (désormais classé dans la sous-famille des Megalancosaurinae), qui signifie « lézard faucille », en référence à leurs griffes fortement incurvées.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (3 août 2019)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (3 août 2019) :
 genre Avicranium
 genre Dolabrosaurus
 genre Kyrgyzsaurus
